--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>NOTE</t>
   </si>
@@ -326,10 +326,6 @@
   </si>
   <si>
     <t>parent::</t>
-  </si>
-  <si>
-    <t>coó thể truy cập phương thức bị ghi đè 
-hoặc static property bằng parent::</t>
   </si>
   <si>
     <r>
@@ -395,12 +391,89 @@
   <si>
     <t>mặc dù ParentClas chưa đc khởi tạo và trong TH này cũng ko thông báo lỗi.</t>
   </si>
+  <si>
+    <t>coó thể truy cập method override
+hoặc static property bằng parent::</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. cách truy cập property, methods static và const trong class
+2. trong 1 class, 1 property và  1 methods có thể trùng tên ko, nếu có thì cách truy cập của chúng ntn
+3. extends có thể muliple inherit
+4. final
+5. cách parent truy cập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">static property </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods override</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> của lớp cha
+6. ClassName</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>::class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có tác dụng gì</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +504,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -474,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +579,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,9 +1053,10 @@
     <col min="2" max="2" width="83.42578125" customWidth="1"/>
     <col min="3" max="3" width="57.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="62.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
@@ -968,7 +1064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
@@ -978,8 +1074,11 @@
       <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -989,11 +1088,11 @@
       <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1001,11 +1100,11 @@
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -1013,11 +1112,11 @@
       <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>34</v>
@@ -1025,19 +1124,19 @@
       <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1045,11 +1144,11 @@
         <v>44</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1158,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -1071,7 +1170,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -1081,7 +1180,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
@@ -1093,7 +1192,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -1103,7 +1202,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>57</v>
@@ -1113,7 +1212,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1127,7 +1226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>63</v>
@@ -1144,13 +1243,13 @@
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1164,32 +1263,32 @@
         <v>69</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -1197,7 +1296,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="6"/>
     </row>

--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Nav" sheetId="1" r:id="rId1"/>
     <sheet name="Intro" sheetId="2" r:id="rId2"/>
     <sheet name="Basic" sheetId="3" r:id="rId3"/>
+    <sheet name="properties" sheetId="4" r:id="rId4"/>
+    <sheet name="Class Constants" sheetId="5" r:id="rId5"/>
+    <sheet name="Autoloading Classes" sheetId="6" r:id="rId6"/>
+    <sheet name="Constructors and Destructors " sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
   <si>
     <t>NOTE</t>
   </si>
@@ -392,10 +396,6 @@
     <t>mặc dù ParentClas chưa đc khởi tạo và trong TH này cũng ko thông báo lỗi.</t>
   </si>
   <si>
-    <t>coó thể truy cập method override
-hoặc static property bằng parent::</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1. cách truy cập property, methods static và const trong class
 2. trong 1 class, 1 property và  1 methods có thể trùng tên ko, nếu có thì cách truy cập của chúng ntn
@@ -468,12 +468,513 @@
       <t xml:space="preserve"> có tác dụng gì</t>
     </r>
   </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <r>
+      <t>You may also see them referred to using other terms such as "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" or "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", but for the purposes of this reference we will use "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>properties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>". (chúng cũng có thể được đề cập với các tên khác như attributes hoặc fields)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>trong các phương thức,  non-static properties có thể được truy cập bằng -&gt;  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$this-&gt;property</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>self::$property</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Test
+{
+    protected $var1 = 'thắngbeo';
+    public static $var2 = 'thanh huyền';
+    public function show()
+    {
+        echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self::$var2;  //truy cập static trong class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    }
+}
+$a = new Test();
+echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test::$var2;    //truy cập static ngoài class</t>
+    </r>
+  </si>
+  <si>
+    <t>$this (pseudo-variable)</t>
+  </si>
+  <si>
+    <t>coó thể truy cập method override (method override trong lớp con gọi đến method lớp cha)
+hoặc static property bằng parent::</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> các thuộc tính static (static properties) có thể được truy cập trong class bằng  (self::$property)
+và method (include static method and common method)</t>
+  </si>
+  <si>
+    <t>User Contributed Notes</t>
+  </si>
+  <si>
+    <t>câu hỏi: sử dụng $this-&gt;, self như thế nào</t>
+  </si>
+  <si>
+    <t>câu hỏi</t>
+  </si>
+  <si>
+    <r>
+      <t>Constants differ from normal variables in that you</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> don't use the $ symbol to declare or use them</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//các hằng số khác với biến thông thường là </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không sử dụng $ symbol để định nghĩa hoặc sử dụng chúng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">constant
+(mặc định </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> có</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phạm vi public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>class Test
+{
+    const TEST_VAR = 'abcd';
+    function abc()
+    {
+        echo self::TEST_VAR;
+    }
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+$t = new Test();
+echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$t::TEST_VAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test::TEST_VAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//sử dụng 1 trong 2 cách</t>
+    </r>
+  </si>
+  <si>
+    <t>1. các hằng số khác với biến thông thường ở điểm nào (sử dụng không có $)</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">namespace test </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    class foo
+    {
+    }
+    echo foo::class;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>có thể định nghĩa class trong namespace bằng {}
+//rất ít khi sử dụng cách này</t>
+  </si>
+  <si>
+    <t>2. namespace có cách sử dụng đặc biệt nào khác?</t>
+  </si>
+  <si>
+    <t>Class constant visibility modifiers</t>
+  </si>
+  <si>
+    <t>class Foo {
+    private const BAZ = 'baz';
+}
+echo Foo::BAZ, PHP_EOL;</t>
+  </si>
+  <si>
+    <t>có thể định nghĩa scope cho const trong class
+//echo Foo::BAZ, PHP_EOL; sẽ bị lỗi vì phạm vi private</t>
+  </si>
+  <si>
+    <t>parent::__construct()</t>
+  </si>
+  <si>
+    <t>hàm construct của cha mẹ ko tự động được gọi trong hàm __construct() của hàm con khi khởi tạo đối tượng ở hàm con. Nếu muốn sử dụng nó cần gọi parrent::__construct()</t>
+  </si>
+  <si>
+    <t>class ParentTest
+{
+    public function __construct()
+    {
+        echo 'hihi';
+    }
+}
+class ChildTest extends ParentTest
+{
+}
+$a = new ChildTest();</t>
+  </si>
+  <si>
+    <t>1. bình thường kế thừa mà hàm con ko định nghĩa _construct thi vẫn hiện ra hihi
+2. nếu hàm con định nghĩa _construct() thì phải parrent::__construct() để nó in ra hihi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+đây là object operator</t>
+    </r>
+  </si>
+  <si>
+    <t>The destructor method will be called as soon as there are no other references to a particular object, or in any order during the shutdown sequence.
+Phương thức hủy sẽ được gọi ngay khi không có tham chiếu nào khác đến một đối tượng cụ thể hoặc theo bất kỳ thứ tự nào trong chuỗi tắt máy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">có thể sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để test </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>destructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//nó sẽ tự động gọi vào destructor khi unset</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">parent::__destruct() </t>
+  </si>
+  <si>
+    <t>giống parrent::__construct()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +1027,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -535,7 +1045,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -558,12 +1068,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -584,6 +1120,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1043,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1635,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1263,7 +1823,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>70</v>
@@ -1728,4 +2288,455 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="130.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Nav" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,18 @@
     <sheet name="Class Constants" sheetId="5" r:id="rId5"/>
     <sheet name="Autoloading Classes" sheetId="6" r:id="rId6"/>
     <sheet name="Constructors and Destructors " sheetId="7" r:id="rId7"/>
+    <sheet name="Visibility " sheetId="8" r:id="rId8"/>
+    <sheet name="Object Inheritance" sheetId="9" r:id="rId9"/>
+    <sheet name="Scope Resolution Operator" sheetId="10" r:id="rId10"/>
+    <sheet name="Static Keyword" sheetId="11" r:id="rId11"/>
+    <sheet name="Class Abstraction " sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
   <si>
     <t>NOTE</t>
   </si>
@@ -861,14 +866,7 @@
 echo Foo::BAZ, PHP_EOL;</t>
   </si>
   <si>
-    <t>có thể định nghĩa scope cho const trong class
-//echo Foo::BAZ, PHP_EOL; sẽ bị lỗi vì phạm vi private</t>
-  </si>
-  <si>
     <t>parent::__construct()</t>
-  </si>
-  <si>
-    <t>hàm construct của cha mẹ ko tự động được gọi trong hàm __construct() của hàm con khi khởi tạo đối tượng ở hàm con. Nếu muốn sử dụng nó cần gọi parrent::__construct()</t>
   </si>
   <si>
     <t>class ParentTest
@@ -884,10 +882,6 @@
 $a = new ChildTest();</t>
   </si>
   <si>
-    <t>1. bình thường kế thừa mà hàm con ko định nghĩa _construct thi vẫn hiện ra hihi
-2. nếu hàm con định nghĩa _construct() thì phải parrent::__construct() để nó in ra hihi</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -968,13 +962,744 @@
   </si>
   <si>
     <t>giống parrent::__construct()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hàm construct của cha mẹ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ko tự động được gọi trong hàm __construct() của hàm con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi khởi tạo đối tượng ở hàm con. Nếu muốn sử dụng nó cần gọi parrent::__construct()</t>
+    </r>
+  </si>
+  <si>
+    <t>1. bình thường khi kế thừa mà class con ko định nghĩa _construct thi vẫn hiện ra hihi (tức là vẫn kế thừa construct)
+2. nếu hàm con định nghĩa _construct() thì phải parrent::__construct() để nó in ra hihi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">có thể định nghĩa scope </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cho const trong class
+//echo Foo::BAZ, PHP_EOL; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sẽ bị lỗi vì phạm vi private</t>
+    </r>
+  </si>
+  <si>
+    <t>inherit: kế thừa</t>
+  </si>
+  <si>
+    <t>public, private, or protected</t>
+  </si>
+  <si>
+    <t>nếu sử dụng từ khóa var. mặc định là public</t>
+  </si>
+  <si>
+    <t>var $name = 'thangbeo';</t>
+  </si>
+  <si>
+    <t>sử dụng var trong class</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>Methods declared without any explicit visibility keyword are defined as public.</t>
+  </si>
+  <si>
+    <t>function show()  -&gt; mặc định là public</t>
+  </si>
+  <si>
+    <t>nên xem các ví dụ trong này ok.</t>
+  </si>
+  <si>
+    <t>Visibility from other objects</t>
+  </si>
+  <si>
+    <t>xem lại chưa rõ mục đích sử dụng lắm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Item
+{
+    /**
+     * This is INSIDE CODE because it is written INSIDE the class.
+     */
+    public $label;
+    public $price;
+    const CST = 'huyen';
+}
+/**
+ * This is OUTSIDE CODE because it is written OUTSIDE the class.
+ */
+$item = new Item();
+$item-&gt;label = 'Ink-Jet Tatoo Gun';
+$item-&gt;price = 49.99;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$item-&gt;newProperty = 'thangbeo';  (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>echo $item-&gt;newProperty; (2)
+echo $item::CST (3)</t>
+    </r>
+  </si>
+  <si>
+    <t>vì PHP là ngôn ngữ thông dịch
+nên có thể ko cần định nghĩa property ngay ở trong class mà có thể định nghĩa ở ngoài.
+Nếu (1) ko được khai báo trước thì (2) sẽ bị lỗi ngay lập tức
+(3) vì CST là hằng số nên cần gọi thông qua $item::CST</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> when you extend a class, the subclass inherits all of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public and protected methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the parent class. Unless a class overrides those methods, they will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retain their original functionality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (Khi bạn kế thừa một lớp, lớp con kế thừa tất cả các phương thức public và protected từ lớp cha. Trừ khi class đó bị override, nó sẽ được giữ nguyên chức năng ban đầu của chúng)</t>
+    </r>
+  </si>
+  <si>
+    <t>class A {
+    public $name = 'thắng';
+}
+class B extends A {
+    public $age = 23;
+}
+class C extends B {
+    public function show()
+    {
+        echo $this-&gt;name . $this-&gt;age. PHP_EOL;
+    }
+}</t>
+  </si>
+  <si>
+    <t>B kế thưa A
+C kế thừa B
+C-&gt;kế thừa cả A và B</t>
+  </si>
+  <si>
+    <t>PHP does support Multi-level inheritance
+This means that you cannot have one class extend 2 other classes (see the extends keyword),
+However, you can have one class extend another, which extends another, and so on</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">access to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>overridden properties or methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a class.</t>
+    </r>
+  </si>
+  <si>
+    <t>When referencing these items from outside the class definition, use the name of the class (khi tham chiếu các mục này từ bên ngoài lớp sử dụng className::)</t>
+  </si>
+  <si>
+    <t>&lt;?php
+class MyClass {
+    const CONST_VALUE = 'A constant value';
+}
+$classname = 'MyClass';
+echo $classname::CONST_VALUE; // As of PHP 5.3.0
+echo MyClass::CONST_VALUE;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Three special keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are used to access properties or methods from inside the class definition</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class A {
+    public $name = 'thắng';
+    const CST = 'HẰNG SỐ';
+    public function show()
+    {
+        echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self::CST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+        echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static::CST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
+    }
+}
+class B extends A {
+    public $age = 23;
+    public function show()
+    {
+        echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static::CST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+        echo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parent::CST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+class OtherClass extends MyClass
+{
+    public static $my_static = 'static var';
+    public static function doubleColon() {
+        echo parent::CONST_VALUE . "\n";
+        echo self::$my_static . "\n";
+    }
+}
+$classname = 'OtherClass';
+$classname::doubleColon(); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// As of PHP 5.3.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+OtherClass::doubleColon();</t>
+    </r>
+  </si>
+  <si>
+    <t>từ PHP 5.3 một instance có thể gọi một method hoặc property static
+=&gt; ClassName::  (cách phổ biến)</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Class Constants</t>
+  </si>
+  <si>
+    <t>Autoloading Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constructors and Destructors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visibility </t>
+  </si>
+  <si>
+    <t>Object Inheritance</t>
+  </si>
+  <si>
+    <t>Scope Resolution Operator</t>
+  </si>
+  <si>
+    <t>Static Keyword</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Foo
+{
+    public static $my_static = 'foo';
+    public function staticValue() {
+        return self::$my_static;
+    }
+}
+class Bar extends Foo
+{
+    public function fooStatic() {
+        return parent::$my_static;
+    }
+}
+echo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bar::$my_static;</t>
+    </r>
+  </si>
+  <si>
+    <t>- Foo có static my_static
+- Bar kế thừa Foo
+- Bar::$my_static</t>
+  </si>
+  <si>
+    <t>static inherit</t>
+  </si>
+  <si>
+    <t>class a{
+    static protected $test="class a";
+    public function static_test(){
+        echo static::$test; // Results class b
+        echo self::$test; // Results class a
+    }
+}
+class b extends a{
+    static protected $test="class b";
+}
+$obj = new b();
+$obj-&gt;static_test();</t>
+  </si>
+  <si>
+    <t>Class Abstraction</t>
+  </si>
+  <si>
+    <t>and any class that contains at least one abstract method must also be abstract</t>
+  </si>
+  <si>
+    <t>bất kỳ lớp nào chứa một phương thức abstract cũng là lớp abstract</t>
+  </si>
+  <si>
+    <t>=&gt; class có phương thức abstract phải là class abstract</t>
+  </si>
+  <si>
+    <t>Methods defined as abstract simply declare the method's signature - they cannot define the implementation.</t>
+  </si>
+  <si>
+    <t>method định nghĩa abstract class đơn giản chỉ là đăng ký method, chúng ta ko thể định nghĩa implementation (thực hiện trong class) cho chúng (class chỉ định nghĩa và để đó)</t>
+  </si>
+  <si>
+    <t>When inheriting from an abstract class, all methods marked abstract in the parent's class declaration must be defined by the child</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">abstract class test
+{
+    public $a;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abstract function show();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">khi </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kế thừa một lớp trừu tượng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, tất cả các method được đánh dấu abstract ở lớp cha phải được</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> định nghĩa ở lớp con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bắt buộc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>trong abstract class có cả
+1. abstract method
+2. normal method
+=&gt;dùng điều này để phân biệt với inteface.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1029,6 +1754,14 @@
     </font>
     <font>
       <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,7 +1832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,26 +1857,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1450,14 +2186,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Intro!A1" display="Intro"/>
+    <hyperlink ref="B3" location="Basic!A1" display="Basic"/>
+    <hyperlink ref="B4" location="properties!A1" display="Properties"/>
+    <hyperlink ref="B5" location="'Class Constants'!A1" display="Class Constants"/>
+    <hyperlink ref="B6" location="'Autoloading Classes'!A1" display="Autoloading Classes"/>
+    <hyperlink ref="B7" location="'Constructors and Destructors '!A1" display="Constructors and Destructors "/>
+    <hyperlink ref="B8" location="'Visibility '!A1" display="Visibility "/>
+    <hyperlink ref="B9" location="'Object Inheritance'!A1" display="Object Inheritance"/>
+    <hyperlink ref="B10" location="'Scope Resolution Operator'!A1" display="Scope Resolution Operator"/>
+    <hyperlink ref="B11" location="'Static Keyword'!A1" display="Static Keyword"/>
+    <hyperlink ref="B12" location="'Class Abstraction '!A1" display="Class Abstraction"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="57.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1603,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +3041,7 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2304,28 +3514,28 @@
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
@@ -2437,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,10 +3661,10 @@
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="16"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="3" t="s">
         <v>88</v>
       </c>
@@ -2463,11 +3673,11 @@
       <c r="A2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>100</v>
+      <c r="C2" s="14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -2609,8 +3819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,37 +3830,37 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2738,5 +3948,289 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="47.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="60.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Nav" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,20 @@
     <sheet name="Autoloading Classes" sheetId="6" r:id="rId6"/>
     <sheet name="Constructors and Destructors " sheetId="7" r:id="rId7"/>
     <sheet name="Visibility " sheetId="8" r:id="rId8"/>
-    <sheet name="Object Inheritance" sheetId="9" r:id="rId9"/>
-    <sheet name="Scope Resolution Operator" sheetId="10" r:id="rId10"/>
-    <sheet name="Static Keyword" sheetId="11" r:id="rId11"/>
+    <sheet name="Scope Resolution Operator" sheetId="10" r:id="rId9"/>
+    <sheet name="Static Keyword" sheetId="11" r:id="rId10"/>
+    <sheet name="Object Inheritance" sheetId="9" r:id="rId11"/>
     <sheet name="Class Abstraction " sheetId="12" r:id="rId12"/>
+    <sheet name="Interfaces " sheetId="13" r:id="rId13"/>
+    <sheet name="Traits " sheetId="14" r:id="rId14"/>
+    <sheet name="Anonymous classes " sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="217">
   <si>
     <t>NOTE</t>
   </si>
@@ -1585,9 +1588,6 @@
     <t>Methods defined as abstract simply declare the method's signature - they cannot define the implementation.</t>
   </si>
   <si>
-    <t>method định nghĩa abstract class đơn giản chỉ là đăng ký method, chúng ta ko thể định nghĩa implementation (thực hiện trong class) cho chúng (class chỉ định nghĩa và để đó)</t>
-  </si>
-  <si>
     <t>When inheriting from an abstract class, all methods marked abstract in the parent's class declaration must be defined by the child</t>
   </si>
   <si>
@@ -1689,17 +1689,603 @@
     </r>
   </si>
   <si>
-    <t>trong abstract class có cả
+    <t>method định nghĩa abstract class đơn giản chỉ là đăng ký method, chúng ta ko thể định nghĩa implementation (thực hiện trong class) cho chúng (abstract function chỉ định nghĩa và để đó)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trong abstract class có cả
 1. abstract method
 2. normal method
-=&gt;dùng điều này để phân biệt với inteface.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=&gt;dùng điều này để phân biệt với inteface.</t>
+    </r>
+  </si>
+  <si>
+    <t>Our child class may define optional arguments not in the parent's signature</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+abstract class AbstractClass
+{
+    // Our abstract method only needs to define the required arguments
+    abstract protected function prefixName($name);
+}
+class ConcreteClass extends AbstractClass
+{
+    // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Our child class may define optional arguments not in the parent's signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    public function prefixName($name,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $separator = "."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+        if ($name == "Pacman") {
+            $prefix = "Mr";
+        } elseif ($name == "Pacwoman") {
+            $prefix = "Mrs";
+        } else {
+            $prefix = "";
+        }
+        return "{$prefix}{$separator} {$name}";
+    }
+}
+$class = new ConcreteClass;
+echo $class-&gt;prefixName("Pacman"), "\n";
+echo $class-&gt;prefixName("Pacwoman"), "\n";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Our child class may define optional arguments not in the parent's signature (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>child class có thể định nghĩa optional argument ko đăng ký  ở lớp cha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>triển khai</t>
+  </si>
+  <si>
+    <t>interface cơ bản giống class</t>
+  </si>
+  <si>
+    <t>and without any of the methods having their contents defined</t>
+  </si>
+  <si>
+    <t>ko có bất kỳ phương thức nào có contents định nghĩa (tức là chỉ định nghĩa để đó)
+//abstract class có 2 loại phương thức là phương thức thường và phương thức abtract</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>All methods declared in an interface must be public</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tất cả các phương thức trong interface </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>phải là public</t>
+    </r>
+  </si>
+  <si>
+    <t>Note that it is possible to declare a constructor in an interface</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">có thể định nghĩa </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constructor trong interface</t>
+    </r>
+  </si>
+  <si>
+    <t>All methods in the interface must be implemented within a class; failure to do so will result in a fatal error</t>
+  </si>
+  <si>
+    <t>tất cả phương thức trong lớp interface phải được implement trong class, nếu ko sẽ xảy ra lỗi nghiêm trọng</t>
+  </si>
+  <si>
+    <t>Classes may implement more than one interface if desired by separating each interface with a comma.</t>
+  </si>
+  <si>
+    <r>
+      <t>public class A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> implements C,D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{...}</t>
+    </r>
+  </si>
+  <si>
+    <t>class có thể implement nhiều interface ngăn cách bởi dấu phẩy</t>
+  </si>
+  <si>
+    <t>Prior to PHP 5.3.9, a class could not implement two interfaces that specified a method with the same name, since it would cause ambiguity. More recent versions of PHP allow this as long as the duplicate methods have the same signature.</t>
+  </si>
+  <si>
+    <t>implements multiple class</t>
+  </si>
+  <si>
+    <t>Trước PHP 5.3.9, một lớp không thể thực hiện hai giao diện chỉ định một phương thức có cùng tên, vì nó sẽ gây ra sự mơ hồ. Các phiên bản gần đây hơn của PHP cho phép điều này miễn là các phương thức trùng lặp có cùng chữ ký</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constants </t>
+  </si>
+  <si>
+    <t>interface có thể có hằng số</t>
+  </si>
+  <si>
+    <t>Declare the interface 'iTemplate'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lưu ý:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ko có keyword class</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interface </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends multiple interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interface a
+{
+    public function foo();
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface b extends a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    public function baz(Baz $baz);
+}
+// This will work
+class c implements b
+{
+    public function foo()
+    {
+    }
+    public function baz(Baz $baz)
+    {
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interface </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends interface</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interface a
+{
+    public function foo();
+}
+interface b
+{
+    public function bar();
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface c extends a, b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    public function baz();
+}
+class d implements c
+{
+    public function foo()
+    {
+    }
+    public function bar()
+    {
+    }
+    public function baz()
+    {
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>interface ko được phép override constants.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">interface a
+{
+    const b = 'Interface constant';
+}
+// Prints: Interface constant
+echo a::b;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// This will however not work because it's not allowed to 
+// override constants.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class b implements a
+{
+    const b = 'Class constant';
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface iTemplate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+{
+    public function setVariable($name, $var);
+    public function getHtml($template);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>As of PHP 5.4.0, PHP implements a method of code reuse called Traits.</t>
+  </si>
+  <si>
+    <t>Traits</t>
+  </si>
+  <si>
+    <t>từ PHP 5.4 sử dụng một phương thức tái sử dụng mã được gọi là traits</t>
+  </si>
+  <si>
+    <t>Traits are a mechanism for code reuse in single inheritance languages such as PHP.</t>
+  </si>
+  <si>
+    <t>là một cơ chế để tái sử dụng mã nguồn trong các ngôn ngữ đơn kế thừa như PHP</t>
+  </si>
+  <si>
+    <t>A Trait is similar to a class, but only intended to group functionality in a fine-grained and consistent way. It is not possible to instantiate a Trait on its own</t>
+  </si>
+  <si>
+    <t>một trait tương tự như một lớp nhưng chỉ nhằm mục đích nhóm chức năng theo cách chi tiết và nhất quán và ko thể khởi tạo.</t>
+  </si>
+  <si>
+    <t>the application of class members without requiring inheritance</t>
+  </si>
+  <si>
+    <t>việc áp dụng cho các thành phần của lớp mà không cần kế thừa</t>
+  </si>
+  <si>
+    <t>declare</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ezcReflectionReturnInfo {
+    function getReturnType() { /*1*/ }
+    function getReturnDescription() { /*2*/ }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>trait name {}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> ezcReflectionReturnInfo;</t>
+    </r>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>&lt;?php
+trait TestTrait
+{
+    public function show(...$arr)
+    {
+        if (count($arr) &gt; 0) {
+            foreach($arr as $a) {
+                echo "{$a}";
+            }
+        }
+    }
+}
+class Test
+{
+    use TestTrait;
+    public static $a = 1;
+    public static $b = 2;
+}
+$t = new Test;
+$t-&gt;show(Test::$a, Test::$b);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precedence Order </t>
+  </si>
+  <si>
+    <t>The precedence order is that methods from the current class override Trait methods, which in turn override methods from the base class</t>
+  </si>
+  <si>
+    <t>Multiple Traits</t>
+  </si>
+  <si>
+    <t>use Hello, World;</t>
+  </si>
+  <si>
+    <t>trait Hello{},  trait World{}</t>
+  </si>
+  <si>
+    <t>Conflict Resolution</t>
+  </si>
+  <si>
+    <t>PHP ít dùng anonymous function</t>
+  </si>
+  <si>
+    <t>three examples describe anonymous class with very simple and basic but quite understandable example</t>
+  </si>
+  <si>
+    <t>1. // First way - anonymous class assigned directly to variable</t>
+  </si>
+  <si>
+    <t>2. // Second way - anonymous class assigned to variable via defined function</t>
+  </si>
+  <si>
+    <t>3. // Third way - passing argument to anonymous class via constructors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +2355,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF793862"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1832,7 +2452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1880,6 +2500,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,145 +2900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="57.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="70.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2529,6 +3017,135 @@
       <c r="C20" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="60.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2538,13 +3155,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="81.5703125" customWidth="1"/>
     <col min="2" max="2" width="68.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.85546875" style="3" customWidth="1"/>
   </cols>
@@ -2562,38 +3179,46 @@
     </row>
     <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
@@ -2666,6 +3291,414 @@
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="339" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" ht="345" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="103" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4111,43 +5144,56 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="57.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="70.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
@@ -4227,10 +5273,6 @@
       <c r="C20" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
   <si>
     <t>NOTE</t>
   </si>
@@ -2279,6 +2279,9 @@
   </si>
   <si>
     <t>3. // Third way - passing argument to anonymous class via constructors</t>
+  </si>
+  <si>
+    <t>hay nè</t>
   </si>
 </sst>
 </file>
@@ -2489,6 +2492,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2500,12 +2509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3034,10 +3037,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3216,7 +3219,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="6"/>
@@ -3524,7 +3527,7 @@
       <c r="B4" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3659,10 +3662,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,6 +3701,11 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4547,28 +4555,28 @@
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
@@ -4694,10 +4702,10 @@
       <c r="A1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="3" t="s">
         <v>88</v>
       </c>

--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Nav" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,17 @@
     <sheet name="Interfaces " sheetId="13" r:id="rId13"/>
     <sheet name="Traits " sheetId="14" r:id="rId14"/>
     <sheet name="Anonymous classes " sheetId="15" r:id="rId15"/>
+    <sheet name="overloading" sheetId="16" r:id="rId16"/>
+    <sheet name="Object Iteration" sheetId="17" r:id="rId17"/>
+    <sheet name="Magic method" sheetId="18" r:id="rId18"/>
+    <sheet name="Type Hinting" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="223">
   <si>
     <t>NOTE</t>
   </si>
@@ -2281,7 +2285,22 @@
     <t>3. // Third way - passing argument to anonymous class via constructors</t>
   </si>
   <si>
-    <t>hay nè</t>
+    <t>Property overloading</t>
+  </si>
+  <si>
+    <t>__set(), __get(), __isset(), __unset()</t>
+  </si>
+  <si>
+    <t>Method overloading</t>
+  </si>
+  <si>
+    <t>__cal(), __callStatic()</t>
+  </si>
+  <si>
+    <t>xem lại</t>
+  </si>
+  <si>
+    <t>xem thêm</t>
   </si>
 </sst>
 </file>
@@ -2901,6 +2920,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3027,6 +3049,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3156,6 +3181,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -3303,6 +3331,9 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -3480,6 +3511,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3662,9 +3696,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3703,12 +3737,283 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="56.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="59.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/note/4class.xlsx
+++ b/note/4class.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="891" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Nav" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <sheet name="Magic method" sheetId="18" r:id="rId18"/>
     <sheet name="Type Hinting" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="229">
   <si>
     <t>NOTE</t>
   </si>
@@ -971,31 +971,6 @@
     <t>giống parrent::__construct()</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">hàm construct của cha mẹ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ko tự động được gọi trong hàm __construct() của hàm con</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> khi khởi tạo đối tượng ở hàm con. Nếu muốn sử dụng nó cần gọi parrent::__construct()</t>
-    </r>
-  </si>
-  <si>
     <t>1. bình thường khi kế thừa mà class con ko định nghĩa _construct thi vẫn hiện ra hihi (tức là vẫn kế thừa construct)
 2. nếu hàm con định nghĩa _construct() thì phải parrent::__construct() để nó in ra hihi</t>
   </si>
@@ -1580,13 +1555,7 @@
     <t>Class Abstraction</t>
   </si>
   <si>
-    <t>and any class that contains at least one abstract method must also be abstract</t>
-  </si>
-  <si>
     <t>bất kỳ lớp nào chứa một phương thức abstract cũng là lớp abstract</t>
-  </si>
-  <si>
-    <t>=&gt; class có phương thức abstract phải là class abstract</t>
   </si>
   <si>
     <t>Methods defined as abstract simply declare the method's signature - they cannot define the implementation.</t>
@@ -1716,76 +1685,6 @@
   </si>
   <si>
     <t>Our child class may define optional arguments not in the parent's signature</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;?php
-abstract class AbstractClass
-{
-    // Our abstract method only needs to define the required arguments
-    abstract protected function prefixName($name);
-}
-class ConcreteClass extends AbstractClass
-{
-    // </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Our child class may define optional arguments not in the parent's signature</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    public function prefixName($name,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $separator = "."</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) {
-        if ($name == "Pacman") {
-            $prefix = "Mr";
-        } elseif ($name == "Pacwoman") {
-            $prefix = "Mrs";
-        } else {
-            $prefix = "";
-        }
-        return "{$prefix}{$separator} {$name}";
-    }
-}
-$class = new ConcreteClass;
-echo $class-&gt;prefixName("Pacman"), "\n";
-echo $class-&gt;prefixName("Pacwoman"), "\n";</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2302,12 +2201,234 @@
   <si>
     <t>xem thêm</t>
   </si>
+  <si>
+    <t>Function static</t>
+  </si>
+  <si>
+    <t>Function static chỉ truy cập được static variable</t>
+  </si>
+  <si>
+    <t>Function thường truy cập được cả static variable và vartiable</t>
+  </si>
+  <si>
+    <t>Any method declared as static is accessible without the creation of an object. Static functions are associated with the class, not an instance of the class. They are permitted to access only static methods and static variables. To add a static method to the class, static keyword is used</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hàm construct của cha mẹ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ko tự động được gọi trong hàm __construct() của hàm con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi khởi tạo đối tượng ở hàm con. 
+Nếu muốn sử dụng nó cần gọi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parrent::__construct()</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;?php 
+class Test
+{
+    public function __construct()
+    {
+        echo "__construct";
+    }
+    public function __destruct()
+    {
+        echo "__destruct";
+    }
+}
+$instance = new Test();
+unset($instance);</t>
+  </si>
+  <si>
+    <t>and any class that contains at least one abstract method must also be abstract
+ Classes defined as abstract cannot be instantiated</t>
+  </si>
+  <si>
+    <t>=&gt; class có phương thức abstract phải là class abstract
+'=&gt; class abstract không có instantiated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHP has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abstract classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;?php
+abstract class AbstractClass
+{
+    // Our abstract method only needs to define the required arguments
+    abstract </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function prefixName($name);
+}
+class ConcreteClass extends AbstractClass
+{
+    // </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Our child class may define optional arguments not in the parent's signature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function prefixName($name,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $separator = "."</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {
+        if ($name == "Pacman") {
+            $prefix = "Mr";
+        } elseif ($name == "Pacwoman") {
+            $prefix = "Mrs";
+        } else {
+            $prefix = "";
+        }
+        return "{$prefix}{$separator} {$name}";
+    }
+}
+$class = new ConcreteClass;
+echo $class-&gt;prefixName("Pacman"), "\n";
+echo $class-&gt;prefixName("Pacwoman"), "\n";</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,6 +2528,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2590,7 +2719,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2625,7 +2754,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2847,57 +2976,57 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2923,123 +3052,135 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="51" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3063,7 +3204,7 @@
     <row r="1" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C1" s="19"/>
     </row>
@@ -3076,13 +3217,13 @@
     </row>
     <row r="3" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3184,10 +3325,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,64 +3338,66 @@
     <col min="3" max="3" width="60.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>160</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
@@ -3322,6 +3465,11 @@
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3336,8 +3484,8 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,119 +3496,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="339" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -3516,7 +3664,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -3529,85 +3677,85 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3645,7 +3793,7 @@
     <row r="16" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C16" s="6"/>
     </row>
@@ -3711,7 +3859,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,22 +3867,22 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3754,10 +3902,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3768,10 +3916,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -3782,7 +3930,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3879,7 +4027,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3996,7 +4144,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4008,7 +4156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -5023,7 +5171,7 @@
         <v>99</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -5163,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,25 +5322,25 @@
     <col min="2" max="2" width="130.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>103</v>
@@ -5200,8 +5348,11 @@
       <c r="C3" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -5210,64 +5361,64 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5303,7 +5454,7 @@
   <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,53 +5469,53 @@
         <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5456,8 +5607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,19 +5618,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -5488,19 +5639,19 @@
         <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
